--- a/Template Harga.xlsx
+++ b/Template Harga.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppSheet-Sales\Damen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEPRI\DATA DIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5E0A31-2AEE-46D1-A449-2CDD52BDD5E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D81242-A8AA-4551-8D35-70364D32410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA316B62-F6A2-4FCD-8AF4-DA96B4017B1C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Harga Item dan Brand" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,12 +26,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>ITEM</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>NS W'DANK EMPON</t>
+  </si>
+  <si>
+    <t>NS APEL JERUK</t>
+  </si>
+  <si>
+    <t>LOKALATE KOPI ANDALIMAN</t>
   </si>
 </sst>
 </file>
@@ -227,51 +233,58 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,22 +339,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -343,19 +360,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -663,625 +759,649 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA22CB9C-706C-4DB1-AA58-59D04C448AD7}">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.90625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" style="9"/>
+    <col min="3" max="3" width="20.90625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="12">
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="12">
         <v>14500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>11000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="12">
         <v>11500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="12">
         <v>11500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="12">
         <v>11500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="12">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="12">
         <v>19000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="12">
         <v>26000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="12">
         <v>14500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="12">
         <v>14500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="12">
         <v>11500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="12">
         <v>11500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="12">
         <v>11500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="12">
         <v>17000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="12">
         <v>17000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
+      <c r="B44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
+      <c r="B46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="4">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="12">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="12">
         <v>16500</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="12">
         <v>20000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="12">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="12">
         <v>13500</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="12">
         <v>13500</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="12">
         <v>13500</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="13">
         <v>16500</v>
       </c>
     </row>
+    <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="13">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="13">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>